--- a/biology/Botanique/Entomophilie/Entomophilie.xlsx
+++ b/biology/Botanique/Entomophilie/Entomophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’entomophilie, appelée aussi fécondation entomophile ou entomogamie, est un mode de pollinisation dans lequel des insectes participent au transport du pollen, jusqu'au stigmate du pistil chez les angiospermes et jusqu'à l'ovule chez les gymnospermes.
 Les insectes butineurs les plus aptes à assurer la pollinisation des plantes à fleurs appartiennent à l'ordre des hyménoptères, ce sont notamment les bourdons, les osmies et les abeilles élevées par les apiculteurs.
@@ -515,9 +527,11 @@
           <t>Chez les Fonges</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entomophilie concerne presque exclusivement la relation plante-insecte et est quasi-inexistante dans le règne des Fonges. Il existe cependant une relation similaire entre des mouches du genre Botanophila et le genre de champignon parasite de graminées Epichloe. En effet, ces organismes entretiennent une relation mutualiste où la femelle transporte les gamètes du champignon en s'en nourrissant et en les déféquant sur un autre individu où les larves de l'insecte se développent en consommant les tissus du champignon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entomophilie concerne presque exclusivement la relation plante-insecte et est quasi-inexistante dans le règne des Fonges. Il existe cependant une relation similaire entre des mouches du genre Botanophila et le genre de champignon parasite de graminées Epichloe. En effet, ces organismes entretiennent une relation mutualiste où la femelle transporte les gamètes du champignon en s'en nourrissant et en les déféquant sur un autre individu où les larves de l'insecte se développent en consommant les tissus du champignon.
 </t>
         </is>
       </c>
